--- a/8/8.xlsx
+++ b/8/8.xlsx
@@ -1,30 +1,1643 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sevdimali.isayev\Desktop\projects\english_vocabullary5_11\8\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="834" uniqueCount="539">
+  <si>
+    <t>acquire</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Acquıre</t>
+  </si>
+  <si>
+    <t>advertisement</t>
+  </si>
+  <si>
+    <t>Reklam</t>
+  </si>
+  <si>
+    <t>alien</t>
+  </si>
+  <si>
+    <t>Yad</t>
+  </si>
+  <si>
+    <t>announce</t>
+  </si>
+  <si>
+    <t>Elan ediblər</t>
+  </si>
+  <si>
+    <t>annoying</t>
+  </si>
+  <si>
+    <t>Zəhlətökən</t>
+  </si>
+  <si>
+    <t>applicant</t>
+  </si>
+  <si>
+    <t>Ərizəçi</t>
+  </si>
+  <si>
+    <t>approach</t>
+  </si>
+  <si>
+    <t>Yanaşma</t>
+  </si>
+  <si>
+    <t>benefit</t>
+  </si>
+  <si>
+    <t>Fayda</t>
+  </si>
+  <si>
+    <t>breed</t>
+  </si>
+  <si>
+    <t>Cinsi</t>
+  </si>
+  <si>
+    <t>bully</t>
+  </si>
+  <si>
+    <t>Xuliqan</t>
+  </si>
+  <si>
+    <t>cane</t>
+  </si>
+  <si>
+    <t>Qamış</t>
+  </si>
+  <si>
+    <t>competent</t>
+  </si>
+  <si>
+    <t>Savadlı</t>
+  </si>
+  <si>
+    <t>creatively</t>
+  </si>
+  <si>
+    <t>Yaradıcılıqla</t>
+  </si>
+  <si>
+    <t>deal with</t>
+  </si>
+  <si>
+    <t>Sövdələşmə</t>
+  </si>
+  <si>
+    <t>dull</t>
+  </si>
+  <si>
+    <t>Küt</t>
+  </si>
+  <si>
+    <t>etiquette</t>
+  </si>
+  <si>
+    <t>Etiket</t>
+  </si>
+  <si>
+    <t>fiction</t>
+  </si>
+  <si>
+    <t>Bədii ədəbiyyat</t>
+  </si>
+  <si>
+    <t>get used to</t>
+  </si>
+  <si>
+    <t>Öyrəşmək</t>
+  </si>
+  <si>
+    <t>graduate</t>
+  </si>
+  <si>
+    <t>Magistratura</t>
+  </si>
+  <si>
+    <t>in charge Of</t>
+  </si>
+  <si>
+    <t>Vəkili Of</t>
+  </si>
+  <si>
+    <t>innovation</t>
+  </si>
+  <si>
+    <t>Yenilik</t>
+  </si>
+  <si>
+    <t>intend Im'tendl</t>
+  </si>
+  <si>
+    <t>Fikrində İm "tendl</t>
+  </si>
+  <si>
+    <t>intimidating</t>
+  </si>
+  <si>
+    <t>Qorxutmağın</t>
+  </si>
+  <si>
+    <t>locker</t>
+  </si>
+  <si>
+    <t>Paltardəyişmə</t>
+  </si>
+  <si>
+    <t>make up one's mind</t>
+  </si>
+  <si>
+    <t>Birinin fikrini təşkil edir</t>
+  </si>
+  <si>
+    <t>mislead</t>
+  </si>
+  <si>
+    <t>Çaşdırmasın</t>
+  </si>
+  <si>
+    <t>multitask</t>
+  </si>
+  <si>
+    <t>Multitask</t>
+  </si>
+  <si>
+    <t>obesity</t>
+  </si>
+  <si>
+    <t>Piylənmə</t>
+  </si>
+  <si>
+    <t>pastime</t>
+  </si>
+  <si>
+    <t>Vaxt</t>
+  </si>
+  <si>
+    <t>podium</t>
+  </si>
+  <si>
+    <t>Podium</t>
+  </si>
+  <si>
+    <t>poket money</t>
+  </si>
+  <si>
+    <t>Pul poket</t>
+  </si>
+  <si>
+    <t>promote</t>
+  </si>
+  <si>
+    <t>Təşviq edilməsi</t>
+  </si>
+  <si>
+    <t>rate</t>
+  </si>
+  <si>
+    <t>Dərəcəsi</t>
+  </si>
+  <si>
+    <t>regulation</t>
+  </si>
+  <si>
+    <t>Əsasnamə</t>
+  </si>
+  <si>
+    <t>relevant</t>
+  </si>
+  <si>
+    <t>Müvafiq</t>
+  </si>
+  <si>
+    <t>rucksack</t>
+  </si>
+  <si>
+    <t>Arxa çantası</t>
+  </si>
+  <si>
+    <t>sufficient</t>
+  </si>
+  <si>
+    <t>Kifayət qədər</t>
+  </si>
+  <si>
+    <t>thriller</t>
+  </si>
+  <si>
+    <t>Triller</t>
+  </si>
+  <si>
+    <t>accidental</t>
+  </si>
+  <si>
+    <t>Təsadüfi</t>
+  </si>
+  <si>
+    <t>avoid</t>
+  </si>
+  <si>
+    <t>Qaçmaq</t>
+  </si>
+  <si>
+    <t>common knowledge</t>
+  </si>
+  <si>
+    <t>Ümumi bilik</t>
+  </si>
+  <si>
+    <t>discovery</t>
+  </si>
+  <si>
+    <t>Discovery</t>
+  </si>
+  <si>
+    <t>emergency</t>
+  </si>
+  <si>
+    <t>Fövqəladə</t>
+  </si>
+  <si>
+    <t>emit</t>
+  </si>
+  <si>
+    <t>Burax</t>
+  </si>
+  <si>
+    <t>enthusiast</t>
+  </si>
+  <si>
+    <t>Entuziast</t>
+  </si>
+  <si>
+    <t>flavoring</t>
+  </si>
+  <si>
+    <t>Dad əlavəsidir</t>
+  </si>
+  <si>
+    <t>frame</t>
+  </si>
+  <si>
+    <t>Çərçivə</t>
+  </si>
+  <si>
+    <t>give credit</t>
+  </si>
+  <si>
+    <t>Kredit ver</t>
+  </si>
+  <si>
+    <t>holy</t>
+  </si>
+  <si>
+    <t>Müqəddəs</t>
+  </si>
+  <si>
+    <t>invention</t>
+  </si>
+  <si>
+    <t>İxtira</t>
+  </si>
+  <si>
+    <t>mediator</t>
+  </si>
+  <si>
+    <t>Vasitəçi</t>
+  </si>
+  <si>
+    <t>observation</t>
+  </si>
+  <si>
+    <t>Müşahidə</t>
+  </si>
+  <si>
+    <t>paddle</t>
+  </si>
+  <si>
+    <t>Avar</t>
+  </si>
+  <si>
+    <t>plagiarism</t>
+  </si>
+  <si>
+    <t>Plagiat</t>
+  </si>
+  <si>
+    <t>rural</t>
+  </si>
+  <si>
+    <t>Kənd</t>
+  </si>
+  <si>
+    <t>slogan</t>
+  </si>
+  <si>
+    <t>Şüarı</t>
+  </si>
+  <si>
+    <t>artificial</t>
+  </si>
+  <si>
+    <t>Süni</t>
+  </si>
+  <si>
+    <t>bud</t>
+  </si>
+  <si>
+    <t>Bad</t>
+  </si>
+  <si>
+    <t>bureau</t>
+  </si>
+  <si>
+    <t>Büro</t>
+  </si>
+  <si>
+    <t>daydreaming</t>
+  </si>
+  <si>
+    <t>Arzu</t>
+  </si>
+  <si>
+    <t>dowry</t>
+  </si>
+  <si>
+    <t>cehiz</t>
+  </si>
+  <si>
+    <t>dye</t>
+  </si>
+  <si>
+    <t>boyamaq</t>
+  </si>
+  <si>
+    <t>dyestuff</t>
+  </si>
+  <si>
+    <t>Boyaq</t>
+  </si>
+  <si>
+    <t>envy</t>
+  </si>
+  <si>
+    <t>paxıllıq etmək</t>
+  </si>
+  <si>
+    <t>fertility</t>
+  </si>
+  <si>
+    <t>bolluq</t>
+  </si>
+  <si>
+    <t>identity</t>
+  </si>
+  <si>
+    <t>eynilik</t>
+  </si>
+  <si>
+    <t>inscribed</t>
+  </si>
+  <si>
+    <t>yazılmış</t>
+  </si>
+  <si>
+    <t>madder</t>
+  </si>
+  <si>
+    <t>boyayıcı boyaq otu</t>
+  </si>
+  <si>
+    <t>passion</t>
+  </si>
+  <si>
+    <t>Ehtiras</t>
+  </si>
+  <si>
+    <t>prosperous</t>
+  </si>
+  <si>
+    <t>Firavan</t>
+  </si>
+  <si>
+    <t>saffron ['sæfranl</t>
+  </si>
+  <si>
+    <t>Zəfəran ["sfranl"]</t>
+  </si>
+  <si>
+    <t>schedule</t>
+  </si>
+  <si>
+    <t>Qrafiki</t>
+  </si>
+  <si>
+    <t>silleteros</t>
+  </si>
+  <si>
+    <t>Silleteros</t>
+  </si>
+  <si>
+    <t>spin</t>
+  </si>
+  <si>
+    <t>Fırladın</t>
+  </si>
+  <si>
+    <t>spiritual</t>
+  </si>
+  <si>
+    <t>stable</t>
+  </si>
+  <si>
+    <t>Sabit</t>
+  </si>
+  <si>
+    <t>stand for</t>
+  </si>
+  <si>
+    <t>tint</t>
+  </si>
+  <si>
+    <t>çalar</t>
+  </si>
+  <si>
+    <t>yarn</t>
+  </si>
+  <si>
+    <t>iplik</t>
+  </si>
+  <si>
+    <t>acre</t>
+  </si>
+  <si>
+    <t>Akrhesabı</t>
+  </si>
+  <si>
+    <t>acupuncture</t>
+  </si>
+  <si>
+    <t>İynəbatırma</t>
+  </si>
+  <si>
+    <t>adventurous</t>
+  </si>
+  <si>
+    <t>Macəra</t>
+  </si>
+  <si>
+    <t>affordable</t>
+  </si>
+  <si>
+    <t>Münasib</t>
+  </si>
+  <si>
+    <t>allergic</t>
+  </si>
+  <si>
+    <t>Allergik</t>
+  </si>
+  <si>
+    <t>anxiety</t>
+  </si>
+  <si>
+    <t>Həyəcan</t>
+  </si>
+  <si>
+    <t>asthma</t>
+  </si>
+  <si>
+    <t>Astma</t>
+  </si>
+  <si>
+    <t>blame</t>
+  </si>
+  <si>
+    <t>günah</t>
+  </si>
+  <si>
+    <t>blockage</t>
+  </si>
+  <si>
+    <t>blokla</t>
+  </si>
+  <si>
+    <t>employ</t>
+  </si>
+  <si>
+    <t>işə götürmək</t>
+  </si>
+  <si>
+    <t>fault</t>
+  </si>
+  <si>
+    <t>fit</t>
+  </si>
+  <si>
+    <t>Lazım</t>
+  </si>
+  <si>
+    <t>incredible</t>
+  </si>
+  <si>
+    <t>İnanılmaz</t>
+  </si>
+  <si>
+    <t>injured</t>
+  </si>
+  <si>
+    <t>Xəsarət alıb</t>
+  </si>
+  <si>
+    <t>overprotective</t>
+  </si>
+  <si>
+    <t>Həddən artıq</t>
+  </si>
+  <si>
+    <t>relieve</t>
+  </si>
+  <si>
+    <t>Yüngülləşdir</t>
+  </si>
+  <si>
+    <t>remote</t>
+  </si>
+  <si>
+    <t>uzaq</t>
+  </si>
+  <si>
+    <t>sedentary</t>
+  </si>
+  <si>
+    <t>oturaq</t>
+  </si>
+  <si>
+    <t>anxious</t>
+  </si>
+  <si>
+    <t>həyəcanlı</t>
+  </si>
+  <si>
+    <t>artery</t>
+  </si>
+  <si>
+    <t>Arteriya</t>
+  </si>
+  <si>
+    <t>campsite</t>
+  </si>
+  <si>
+    <t>Kempinq</t>
+  </si>
+  <si>
+    <t>cause</t>
+  </si>
+  <si>
+    <t>Səbəb</t>
+  </si>
+  <si>
+    <t>coastline</t>
+  </si>
+  <si>
+    <t>Sahil xətti</t>
+  </si>
+  <si>
+    <t>conclusion</t>
+  </si>
+  <si>
+    <t>Nəticə</t>
+  </si>
+  <si>
+    <t>conserve</t>
+  </si>
+  <si>
+    <t>Saxla</t>
+  </si>
+  <si>
+    <t>deplete</t>
+  </si>
+  <si>
+    <t>Tükəndir</t>
+  </si>
+  <si>
+    <t>deposit</t>
+  </si>
+  <si>
+    <t>Depozit</t>
+  </si>
+  <si>
+    <t>desperate</t>
+  </si>
+  <si>
+    <t>Ümidsiz</t>
+  </si>
+  <si>
+    <t>domestic</t>
+  </si>
+  <si>
+    <t>Daxili</t>
+  </si>
+  <si>
+    <t>donated</t>
+  </si>
+  <si>
+    <t>Hədiyyə</t>
+  </si>
+  <si>
+    <t>drought</t>
+  </si>
+  <si>
+    <t>Quraqlıq</t>
+  </si>
+  <si>
+    <t>durable</t>
+  </si>
+  <si>
+    <t>Davamlı</t>
+  </si>
+  <si>
+    <t>earthquake</t>
+  </si>
+  <si>
+    <t>Zəlzələ</t>
+  </si>
+  <si>
+    <t>eliminate</t>
+  </si>
+  <si>
+    <t>Aradan qaldırılması</t>
+  </si>
+  <si>
+    <t>emission</t>
+  </si>
+  <si>
+    <t>Emissiya</t>
+  </si>
+  <si>
+    <t>enthusiastic</t>
+  </si>
+  <si>
+    <t>Qaynar</t>
+  </si>
+  <si>
+    <t>eruption</t>
+  </si>
+  <si>
+    <t>Vulkan</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>Mühüm</t>
+  </si>
+  <si>
+    <t>eventually</t>
+  </si>
+  <si>
+    <t>Sonda</t>
+  </si>
+  <si>
+    <t>fibre</t>
+  </si>
+  <si>
+    <t>Lifi</t>
+  </si>
+  <si>
+    <t>flood</t>
+  </si>
+  <si>
+    <t>Daşqın</t>
+  </si>
+  <si>
+    <t>grateful</t>
+  </si>
+  <si>
+    <t>Şükür</t>
+  </si>
+  <si>
+    <t>head to</t>
+  </si>
+  <si>
+    <t>Baş</t>
+  </si>
+  <si>
+    <t>heat</t>
+  </si>
+  <si>
+    <t>İsti olacaq</t>
+  </si>
+  <si>
+    <t>hurricane</t>
+  </si>
+  <si>
+    <t>Qasırğa</t>
+  </si>
+  <si>
+    <t>implementation</t>
+  </si>
+  <si>
+    <t>Həyata keçirilməsi</t>
+  </si>
+  <si>
+    <t>landfill</t>
+  </si>
+  <si>
+    <t>Poliqon</t>
+  </si>
+  <si>
+    <t>light bulb</t>
+  </si>
+  <si>
+    <t>Elektrik lampası</t>
+  </si>
+  <si>
+    <t>lightning</t>
+  </si>
+  <si>
+    <t>İldırım</t>
+  </si>
+  <si>
+    <t>milestone</t>
+  </si>
+  <si>
+    <t>Mərhələ</t>
+  </si>
+  <si>
+    <t>packaging</t>
+  </si>
+  <si>
+    <t>Qablaşdırma</t>
+  </si>
+  <si>
+    <t>perish</t>
+  </si>
+  <si>
+    <t>Məhv olsun</t>
+  </si>
+  <si>
+    <t>petroleum</t>
+  </si>
+  <si>
+    <t>Neft</t>
+  </si>
+  <si>
+    <t>pick up</t>
+  </si>
+  <si>
+    <t>Zabrat</t>
+  </si>
+  <si>
+    <t>precious</t>
+  </si>
+  <si>
+    <t>Qiymətli</t>
+  </si>
+  <si>
+    <t>prevent</t>
+  </si>
+  <si>
+    <t>Qarşısını almaq</t>
+  </si>
+  <si>
+    <t>proud</t>
+  </si>
+  <si>
+    <t>Məğrur</t>
+  </si>
+  <si>
+    <t>recycle</t>
+  </si>
+  <si>
+    <t>Yenidən işlə</t>
+  </si>
+  <si>
+    <t>reduce</t>
+  </si>
+  <si>
+    <t>Azaldın</t>
+  </si>
+  <si>
+    <t>restore</t>
+  </si>
+  <si>
+    <t>Bərpa</t>
+  </si>
+  <si>
+    <t>reuse</t>
+  </si>
+  <si>
+    <t>Təkrar istifadə</t>
+  </si>
+  <si>
+    <t>ruin</t>
+  </si>
+  <si>
+    <t>Dağıtmaq</t>
+  </si>
+  <si>
+    <t>significant</t>
+  </si>
+  <si>
+    <t>Əhəmiyyətli</t>
+  </si>
+  <si>
+    <t>soil</t>
+  </si>
+  <si>
+    <t>Torpaq</t>
+  </si>
+  <si>
+    <t>solar</t>
+  </si>
+  <si>
+    <t>Günəş</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>Mənbə</t>
+  </si>
+  <si>
+    <t>surrounding</t>
+  </si>
+  <si>
+    <t>Ətraf</t>
+  </si>
+  <si>
+    <t>switch to</t>
+  </si>
+  <si>
+    <t>Dəyiş</t>
+  </si>
+  <si>
+    <t>tense</t>
+  </si>
+  <si>
+    <t>Gərgin</t>
+  </si>
+  <si>
+    <t>thunderstonn</t>
+  </si>
+  <si>
+    <t>Thunderstonn</t>
+  </si>
+  <si>
+    <t>tide</t>
+  </si>
+  <si>
+    <t>Bəxt</t>
+  </si>
+  <si>
+    <t>tip</t>
+  </si>
+  <si>
+    <t>çaypulu vermək</t>
+  </si>
+  <si>
+    <t>tornado</t>
+  </si>
+  <si>
+    <t>Tornado</t>
+  </si>
+  <si>
+    <t>toxic</t>
+  </si>
+  <si>
+    <t>Zəhərli</t>
+  </si>
+  <si>
+    <t>tsunami</t>
+  </si>
+  <si>
+    <t>Sunami</t>
+  </si>
+  <si>
+    <t>unique</t>
+  </si>
+  <si>
+    <t>Nadir</t>
+  </si>
+  <si>
+    <t>upset</t>
+  </si>
+  <si>
+    <t>Məyus edib</t>
+  </si>
+  <si>
+    <t>vacation</t>
+  </si>
+  <si>
+    <t>İstirahət</t>
+  </si>
+  <si>
+    <t>volcano</t>
+  </si>
+  <si>
+    <t>volunteering</t>
+  </si>
+  <si>
+    <t>Könüllülük</t>
+  </si>
+  <si>
+    <t>waste</t>
+  </si>
+  <si>
+    <t>Tullantıların</t>
+  </si>
+  <si>
+    <t>windmill</t>
+  </si>
+  <si>
+    <t>Yeldəyirmanının</t>
+  </si>
+  <si>
+    <t>aqueduct</t>
+  </si>
+  <si>
+    <t>Su</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>Orta</t>
+  </si>
+  <si>
+    <t>cancer</t>
+  </si>
+  <si>
+    <t>Xərçəng</t>
+  </si>
+  <si>
+    <t>cosmopolitan</t>
+  </si>
+  <si>
+    <t>Kosmopolit</t>
+  </si>
+  <si>
+    <t>distinguish</t>
+  </si>
+  <si>
+    <t>Fərqləndirir</t>
+  </si>
+  <si>
+    <t>due to</t>
+  </si>
+  <si>
+    <t>İlə əlaqədar</t>
+  </si>
+  <si>
+    <t>faith</t>
+  </si>
+  <si>
+    <t>İnam</t>
+  </si>
+  <si>
+    <t>foothill</t>
+  </si>
+  <si>
+    <t>Dağətəyi</t>
+  </si>
+  <si>
+    <t>gateway</t>
+  </si>
+  <si>
+    <t>Gateway</t>
+  </si>
+  <si>
+    <t>gigantic</t>
+  </si>
+  <si>
+    <t>goods</t>
+  </si>
+  <si>
+    <t>Mal</t>
+  </si>
+  <si>
+    <t>harbor</t>
+  </si>
+  <si>
+    <t>Liman</t>
+  </si>
+  <si>
+    <t>headland</t>
+  </si>
+  <si>
+    <t>Burunu</t>
+  </si>
+  <si>
+    <t>healing</t>
+  </si>
+  <si>
+    <t>Şəfa</t>
+  </si>
+  <si>
+    <t>heritage</t>
+  </si>
+  <si>
+    <t>Heritage</t>
+  </si>
+  <si>
+    <t>immigrant</t>
+  </si>
+  <si>
+    <t>Mühacir</t>
+  </si>
+  <si>
+    <t>Yazılmış</t>
+  </si>
+  <si>
+    <t>landmark</t>
+  </si>
+  <si>
+    <t>Tarixi</t>
+  </si>
+  <si>
+    <t>minority</t>
+  </si>
+  <si>
+    <t>Azlıq</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>Online</t>
+  </si>
+  <si>
+    <t>passive</t>
+  </si>
+  <si>
+    <t>Passiv</t>
+  </si>
+  <si>
+    <t>rare</t>
+  </si>
+  <si>
+    <t>rheumatic</t>
+  </si>
+  <si>
+    <t>Revmatik</t>
+  </si>
+  <si>
+    <t>sanctuary</t>
+  </si>
+  <si>
+    <t>Ziyarətgah</t>
+  </si>
+  <si>
+    <t>selection</t>
+  </si>
+  <si>
+    <t>Seçim</t>
+  </si>
+  <si>
+    <t>shrine</t>
+  </si>
+  <si>
+    <t>Məbəd</t>
+  </si>
+  <si>
+    <t>strait</t>
+  </si>
+  <si>
+    <t>Boğaz</t>
+  </si>
+  <si>
+    <t>temple</t>
+  </si>
+  <si>
+    <t>tomb</t>
+  </si>
+  <si>
+    <t>Türbəsi</t>
+  </si>
+  <si>
+    <t>valley</t>
+  </si>
+  <si>
+    <t>Dərə</t>
+  </si>
+  <si>
+    <t>worshipper</t>
+  </si>
+  <si>
+    <t>Sitayiş edən</t>
+  </si>
+  <si>
+    <t>animated</t>
+  </si>
+  <si>
+    <t>Animasiya</t>
+  </si>
+  <si>
+    <t>beat yourself up</t>
+  </si>
+  <si>
+    <t>Özünüz vurun</t>
+  </si>
+  <si>
+    <t>capture</t>
+  </si>
+  <si>
+    <t>Əsir</t>
+  </si>
+  <si>
+    <t>courageous</t>
+  </si>
+  <si>
+    <t>Cəsarətli</t>
+  </si>
+  <si>
+    <t>critic</t>
+  </si>
+  <si>
+    <t>Tənqidçi</t>
+  </si>
+  <si>
+    <t>deed</t>
+  </si>
+  <si>
+    <t>İşi</t>
+  </si>
+  <si>
+    <t>dwarf</t>
+  </si>
+  <si>
+    <t>Cırtdan</t>
+  </si>
+  <si>
+    <t>follower</t>
+  </si>
+  <si>
+    <t>Davamçısı</t>
+  </si>
+  <si>
+    <t>genre</t>
+  </si>
+  <si>
+    <t>Janr</t>
+  </si>
+  <si>
+    <t>give in</t>
+  </si>
+  <si>
+    <t>Ver</t>
+  </si>
+  <si>
+    <t>hardship</t>
+  </si>
+  <si>
+    <t>Çətinlikləri</t>
+  </si>
+  <si>
+    <t>heroism</t>
+  </si>
+  <si>
+    <t>Qəhrəmanlıq</t>
+  </si>
+  <si>
+    <t>injustice</t>
+  </si>
+  <si>
+    <t>Ədalətsizlik</t>
+  </si>
+  <si>
+    <t>instant</t>
+  </si>
+  <si>
+    <t>ani</t>
+  </si>
+  <si>
+    <t>liberation</t>
+  </si>
+  <si>
+    <t>Azadlıq</t>
+  </si>
+  <si>
+    <t>massacre</t>
+  </si>
+  <si>
+    <t>Qırğını</t>
+  </si>
+  <si>
+    <t>mess up</t>
+  </si>
+  <si>
+    <t>Dəhşətdir</t>
+  </si>
+  <si>
+    <t>murder</t>
+  </si>
+  <si>
+    <t>Qətl</t>
+  </si>
+  <si>
+    <t>nominated</t>
+  </si>
+  <si>
+    <t>Namizədliyi irəli sürülüb</t>
+  </si>
+  <si>
+    <t>outlaw</t>
+  </si>
+  <si>
+    <t>Cinayətkar</t>
+  </si>
+  <si>
+    <t>part</t>
+  </si>
+  <si>
+    <t>bölmək</t>
+  </si>
+  <si>
+    <t>patriotism</t>
+  </si>
+  <si>
+    <t>Vətənpərvərlik</t>
+  </si>
+  <si>
+    <t>poisoned</t>
+  </si>
+  <si>
+    <t>Zəhərlənib</t>
+  </si>
+  <si>
+    <t>premiere</t>
+  </si>
+  <si>
+    <t>Premyera</t>
+  </si>
+  <si>
+    <t>prestigious</t>
+  </si>
+  <si>
+    <t>Nüfuzlu</t>
+  </si>
+  <si>
+    <t>reveal</t>
+  </si>
+  <si>
+    <t>Göstər</t>
+  </si>
+  <si>
+    <t>rob</t>
+  </si>
+  <si>
+    <t>Rob</t>
+  </si>
+  <si>
+    <t>slaughter</t>
+  </si>
+  <si>
+    <t>Qırğın</t>
+  </si>
+  <si>
+    <t>star</t>
+  </si>
+  <si>
+    <t>Ulduz</t>
+  </si>
+  <si>
+    <t>succeed</t>
+  </si>
+  <si>
+    <t>Uğur</t>
+  </si>
+  <si>
+    <t>take a deep breath</t>
+  </si>
+  <si>
+    <t>Dərindən nəfəs alın</t>
+  </si>
+  <si>
+    <t>violence</t>
+  </si>
+  <si>
+    <t>zorakılıq</t>
+  </si>
+  <si>
+    <t>wealthy</t>
+  </si>
+  <si>
+    <t>varlı</t>
+  </si>
+  <si>
+    <t>agency</t>
+  </si>
+  <si>
+    <t>Agentlik</t>
+  </si>
+  <si>
+    <t>ancestor</t>
+  </si>
+  <si>
+    <t>Əcdad</t>
+  </si>
+  <si>
+    <t>basement</t>
+  </si>
+  <si>
+    <t>Zirzəmi</t>
+  </si>
+  <si>
+    <t>burrow</t>
+  </si>
+  <si>
+    <t>Gizlən</t>
+  </si>
+  <si>
+    <t>camouflaged</t>
+  </si>
+  <si>
+    <t>Gizli</t>
+  </si>
+  <si>
+    <t>canal</t>
+  </si>
+  <si>
+    <t>Kanalı</t>
+  </si>
+  <si>
+    <t>cellar</t>
+  </si>
+  <si>
+    <t>complexity</t>
+  </si>
+  <si>
+    <t>Mürəkkəblik</t>
+  </si>
+  <si>
+    <t>conventional</t>
+  </si>
+  <si>
+    <t>Adi</t>
+  </si>
+  <si>
+    <t>cultivate</t>
+  </si>
+  <si>
+    <t>Becər</t>
+  </si>
+  <si>
+    <t>den</t>
+  </si>
+  <si>
+    <t>Den</t>
+  </si>
+  <si>
+    <t>detached</t>
+  </si>
+  <si>
+    <t>Ayrıca</t>
+  </si>
+  <si>
+    <t>distance</t>
+  </si>
+  <si>
+    <t>Məsafə</t>
+  </si>
+  <si>
+    <t>en-suite</t>
+  </si>
+  <si>
+    <t>İzvan</t>
+  </si>
+  <si>
+    <t>extraordinary</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>İşə sal</t>
+  </si>
+  <si>
+    <t>furnish</t>
+  </si>
+  <si>
+    <t>Təqdim etsin</t>
+  </si>
+  <si>
+    <t>futuristic</t>
+  </si>
+  <si>
+    <t>Futurist</t>
+  </si>
+  <si>
+    <t>gian</t>
+  </si>
+  <si>
+    <t>hive</t>
+  </si>
+  <si>
+    <t>Pətək</t>
+  </si>
+  <si>
+    <t>hole</t>
+  </si>
+  <si>
+    <t>Quyu</t>
+  </si>
+  <si>
+    <t>inhabitant</t>
+  </si>
+  <si>
+    <t>sakin</t>
+  </si>
+  <si>
+    <t>invisible</t>
+  </si>
+  <si>
+    <t>Görünməz</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t>Yerləşdiyi ünvan</t>
+  </si>
+  <si>
+    <t>lodge</t>
+  </si>
+  <si>
+    <t>Lojalar</t>
+  </si>
+  <si>
+    <t>luxury</t>
+  </si>
+  <si>
+    <t>Lüks</t>
+  </si>
+  <si>
+    <t>maintenance</t>
+  </si>
+  <si>
+    <t>Texniki xidmət</t>
+  </si>
+  <si>
+    <t>narrow boat</t>
+  </si>
+  <si>
+    <t>semi-detached</t>
+  </si>
+  <si>
+    <t>ümumi divara malik</t>
+  </si>
+  <si>
+    <t>shell</t>
+  </si>
+  <si>
+    <t>Shell</t>
+  </si>
+  <si>
+    <t>spacious</t>
+  </si>
+  <si>
+    <t>Geniş</t>
+  </si>
+  <si>
+    <t>stilt</t>
+  </si>
+  <si>
+    <t>İsraf</t>
+  </si>
+  <si>
+    <t>suburb</t>
+  </si>
+  <si>
+    <t>Qəsəbədə</t>
+  </si>
+  <si>
+    <t>terraced</t>
+  </si>
+  <si>
+    <t>Pilləkən</t>
+  </si>
+  <si>
+    <t>tree hollow</t>
+  </si>
+  <si>
+    <t>Ağac hövzəyə</t>
+  </si>
+  <si>
+    <t>ultramodern</t>
+  </si>
+  <si>
+    <t>Ultramodern</t>
+  </si>
+  <si>
+    <t>waterway</t>
+  </si>
+  <si>
+    <t>achieve</t>
+  </si>
+  <si>
+    <t>Nail</t>
+  </si>
+  <si>
+    <t>ambition</t>
+  </si>
+  <si>
+    <t>İddialıyıq</t>
+  </si>
+  <si>
+    <t>attitude</t>
+  </si>
+  <si>
+    <t>Münasibət</t>
+  </si>
+  <si>
+    <t>conclude</t>
+  </si>
+  <si>
+    <t>Bağlayır</t>
+  </si>
+  <si>
+    <t>curious</t>
+  </si>
+  <si>
+    <t>Kuryoz</t>
+  </si>
+  <si>
+    <t>descend</t>
+  </si>
+  <si>
+    <t>En</t>
+  </si>
+  <si>
+    <t>diet</t>
+  </si>
+  <si>
+    <t>Pəhriz</t>
+  </si>
+  <si>
+    <t>fortune</t>
+  </si>
+  <si>
+    <t>Fortune</t>
+  </si>
+  <si>
+    <t>Sakin</t>
+  </si>
+  <si>
+    <t>insecure</t>
+  </si>
+  <si>
+    <t>İnamsız halda</t>
+  </si>
+  <si>
+    <t>lifestyle</t>
+  </si>
+  <si>
+    <t>Həyat tərzi</t>
+  </si>
+  <si>
+    <t>longevity</t>
+  </si>
+  <si>
+    <t>Uzunömürlülük</t>
+  </si>
+  <si>
+    <t>sensitive</t>
+  </si>
+  <si>
+    <t>Həssas</t>
+  </si>
+  <si>
+    <t>success</t>
+  </si>
+  <si>
+    <t>Uğurlar</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -61,14 +1674,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -115,7 +1720,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -147,10 +1752,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -182,7 +1786,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -358,15 +1961,3072 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C278"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C265"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>53</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>57</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>59</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>61</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>63</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>65</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>67</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>69</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>71</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>73</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
+        <v>75</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
+        <v>77</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
+        <v>79</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1</v>
+      </c>
+      <c r="C40" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" t="s">
+        <v>81</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" t="s">
+        <v>83</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1</v>
+      </c>
+      <c r="C42" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" t="s">
+        <v>85</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1</v>
+      </c>
+      <c r="C43" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" t="s">
+        <v>87</v>
+      </c>
+      <c r="B44" t="s">
+        <v>1</v>
+      </c>
+      <c r="C44" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" t="s">
+        <v>89</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1</v>
+      </c>
+      <c r="C45" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" t="s">
+        <v>91</v>
+      </c>
+      <c r="B46" t="s">
+        <v>1</v>
+      </c>
+      <c r="C46" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" t="s">
+        <v>93</v>
+      </c>
+      <c r="B47" t="s">
+        <v>1</v>
+      </c>
+      <c r="C47" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" t="s">
+        <v>95</v>
+      </c>
+      <c r="B48" t="s">
+        <v>1</v>
+      </c>
+      <c r="C48" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" t="s">
+        <v>97</v>
+      </c>
+      <c r="B49" t="s">
+        <v>1</v>
+      </c>
+      <c r="C49" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" t="s">
+        <v>99</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1</v>
+      </c>
+      <c r="C50" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" t="s">
+        <v>101</v>
+      </c>
+      <c r="B51" t="s">
+        <v>1</v>
+      </c>
+      <c r="C51" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" t="s">
+        <v>103</v>
+      </c>
+      <c r="B52" t="s">
+        <v>1</v>
+      </c>
+      <c r="C52" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" t="s">
+        <v>105</v>
+      </c>
+      <c r="B53" t="s">
+        <v>1</v>
+      </c>
+      <c r="C53" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" t="s">
+        <v>107</v>
+      </c>
+      <c r="B54" t="s">
+        <v>1</v>
+      </c>
+      <c r="C54" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" t="s">
+        <v>109</v>
+      </c>
+      <c r="B55" t="s">
+        <v>1</v>
+      </c>
+      <c r="C55" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" t="s">
+        <v>111</v>
+      </c>
+      <c r="B56" t="s">
+        <v>1</v>
+      </c>
+      <c r="C56" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" t="s">
+        <v>113</v>
+      </c>
+      <c r="B57" t="s">
+        <v>1</v>
+      </c>
+      <c r="C57" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" t="s">
+        <v>115</v>
+      </c>
+      <c r="B58" t="s">
+        <v>1</v>
+      </c>
+      <c r="C58" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" t="s">
+        <v>117</v>
+      </c>
+      <c r="B59" t="s">
+        <v>1</v>
+      </c>
+      <c r="C59" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" t="s">
+        <v>119</v>
+      </c>
+      <c r="B60" t="s">
+        <v>1</v>
+      </c>
+      <c r="C60" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" t="s">
+        <v>121</v>
+      </c>
+      <c r="B61" t="s">
+        <v>1</v>
+      </c>
+      <c r="C61" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" t="s">
+        <v>123</v>
+      </c>
+      <c r="B62" t="s">
+        <v>1</v>
+      </c>
+      <c r="C62" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" t="s">
+        <v>125</v>
+      </c>
+      <c r="B63" t="s">
+        <v>1</v>
+      </c>
+      <c r="C63" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" t="s">
+        <v>127</v>
+      </c>
+      <c r="B64" t="s">
+        <v>1</v>
+      </c>
+      <c r="C64" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" t="s">
+        <v>129</v>
+      </c>
+      <c r="B65" t="s">
+        <v>1</v>
+      </c>
+      <c r="C65" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" t="s">
+        <v>131</v>
+      </c>
+      <c r="B66" t="s">
+        <v>1</v>
+      </c>
+      <c r="C66" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" t="s">
+        <v>133</v>
+      </c>
+      <c r="B67" t="s">
+        <v>1</v>
+      </c>
+      <c r="C67" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" t="s">
+        <v>135</v>
+      </c>
+      <c r="B68" t="s">
+        <v>1</v>
+      </c>
+      <c r="C68" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" t="s">
+        <v>137</v>
+      </c>
+      <c r="B69" t="s">
+        <v>1</v>
+      </c>
+      <c r="C69" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" t="s">
+        <v>139</v>
+      </c>
+      <c r="B70" t="s">
+        <v>1</v>
+      </c>
+      <c r="C70" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" t="s">
+        <v>141</v>
+      </c>
+      <c r="B71" t="s">
+        <v>1</v>
+      </c>
+      <c r="C71" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" t="s">
+        <v>143</v>
+      </c>
+      <c r="B72" t="s">
+        <v>1</v>
+      </c>
+      <c r="C72" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" t="s">
+        <v>145</v>
+      </c>
+      <c r="B73" t="s">
+        <v>1</v>
+      </c>
+      <c r="C73" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" t="s">
+        <v>147</v>
+      </c>
+      <c r="B74" t="s">
+        <v>1</v>
+      </c>
+      <c r="C74" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" t="s">
+        <v>149</v>
+      </c>
+      <c r="B75" t="s">
+        <v>1</v>
+      </c>
+      <c r="C75" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" t="s">
+        <v>150</v>
+      </c>
+      <c r="B76" t="s">
+        <v>1</v>
+      </c>
+      <c r="C76" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" t="s">
+        <v>152</v>
+      </c>
+      <c r="B77" t="s">
+        <v>1</v>
+      </c>
+      <c r="C77" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" t="s">
+        <v>153</v>
+      </c>
+      <c r="B78" t="s">
+        <v>1</v>
+      </c>
+      <c r="C78" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" t="s">
+        <v>155</v>
+      </c>
+      <c r="B79" t="s">
+        <v>1</v>
+      </c>
+      <c r="C79" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" t="s">
+        <v>157</v>
+      </c>
+      <c r="B80" t="s">
+        <v>1</v>
+      </c>
+      <c r="C80" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" t="s">
+        <v>159</v>
+      </c>
+      <c r="B81" t="s">
+        <v>1</v>
+      </c>
+      <c r="C81" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" t="s">
+        <v>161</v>
+      </c>
+      <c r="B82" t="s">
+        <v>1</v>
+      </c>
+      <c r="C82" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" t="s">
+        <v>163</v>
+      </c>
+      <c r="B83" t="s">
+        <v>1</v>
+      </c>
+      <c r="C83" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" t="s">
+        <v>165</v>
+      </c>
+      <c r="B84" t="s">
+        <v>1</v>
+      </c>
+      <c r="C84" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" t="s">
+        <v>167</v>
+      </c>
+      <c r="B85" t="s">
+        <v>1</v>
+      </c>
+      <c r="C85" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" t="s">
+        <v>169</v>
+      </c>
+      <c r="B86" t="s">
+        <v>1</v>
+      </c>
+      <c r="C86" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" t="s">
+        <v>171</v>
+      </c>
+      <c r="B87" t="s">
+        <v>1</v>
+      </c>
+      <c r="C87" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" t="s">
+        <v>173</v>
+      </c>
+      <c r="B88" t="s">
+        <v>1</v>
+      </c>
+      <c r="C88" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" t="s">
+        <v>175</v>
+      </c>
+      <c r="B89" t="s">
+        <v>1</v>
+      </c>
+      <c r="C89" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" t="s">
+        <v>177</v>
+      </c>
+      <c r="B90" t="s">
+        <v>1</v>
+      </c>
+      <c r="C90" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" t="s">
+        <v>178</v>
+      </c>
+      <c r="B91" t="s">
+        <v>1</v>
+      </c>
+      <c r="C91" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" t="s">
+        <v>180</v>
+      </c>
+      <c r="B92" t="s">
+        <v>1</v>
+      </c>
+      <c r="C92" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" t="s">
+        <v>182</v>
+      </c>
+      <c r="B93" t="s">
+        <v>1</v>
+      </c>
+      <c r="C93" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" t="s">
+        <v>184</v>
+      </c>
+      <c r="B94" t="s">
+        <v>1</v>
+      </c>
+      <c r="C94" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" t="s">
+        <v>186</v>
+      </c>
+      <c r="B95" t="s">
+        <v>1</v>
+      </c>
+      <c r="C95" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" t="s">
+        <v>188</v>
+      </c>
+      <c r="B96" t="s">
+        <v>1</v>
+      </c>
+      <c r="C96" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" t="s">
+        <v>190</v>
+      </c>
+      <c r="B97" t="s">
+        <v>1</v>
+      </c>
+      <c r="C97" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" t="s">
+        <v>192</v>
+      </c>
+      <c r="B98" t="s">
+        <v>1</v>
+      </c>
+      <c r="C98" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" t="s">
+        <v>194</v>
+      </c>
+      <c r="B99" t="s">
+        <v>1</v>
+      </c>
+      <c r="C99" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" t="s">
+        <v>196</v>
+      </c>
+      <c r="B100" t="s">
+        <v>1</v>
+      </c>
+      <c r="C100" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" t="s">
+        <v>198</v>
+      </c>
+      <c r="B101" t="s">
+        <v>1</v>
+      </c>
+      <c r="C101" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" t="s">
+        <v>200</v>
+      </c>
+      <c r="B102" t="s">
+        <v>1</v>
+      </c>
+      <c r="C102" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" t="s">
+        <v>202</v>
+      </c>
+      <c r="B103" t="s">
+        <v>1</v>
+      </c>
+      <c r="C103" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" t="s">
+        <v>204</v>
+      </c>
+      <c r="B104" t="s">
+        <v>1</v>
+      </c>
+      <c r="C104" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" t="s">
+        <v>206</v>
+      </c>
+      <c r="B105" t="s">
+        <v>1</v>
+      </c>
+      <c r="C105" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" t="s">
+        <v>208</v>
+      </c>
+      <c r="B106" t="s">
+        <v>1</v>
+      </c>
+      <c r="C106" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" t="s">
+        <v>210</v>
+      </c>
+      <c r="B107" t="s">
+        <v>1</v>
+      </c>
+      <c r="C107" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" t="s">
+        <v>212</v>
+      </c>
+      <c r="B108" t="s">
+        <v>1</v>
+      </c>
+      <c r="C108" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" t="s">
+        <v>214</v>
+      </c>
+      <c r="B109" t="s">
+        <v>1</v>
+      </c>
+      <c r="C109" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" t="s">
+        <v>216</v>
+      </c>
+      <c r="B110" t="s">
+        <v>1</v>
+      </c>
+      <c r="C110" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" t="s">
+        <v>218</v>
+      </c>
+      <c r="B111" t="s">
+        <v>1</v>
+      </c>
+      <c r="C111" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" t="s">
+        <v>220</v>
+      </c>
+      <c r="B112" t="s">
+        <v>1</v>
+      </c>
+      <c r="C112" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" t="s">
+        <v>222</v>
+      </c>
+      <c r="B113" t="s">
+        <v>1</v>
+      </c>
+      <c r="C113" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" t="s">
+        <v>224</v>
+      </c>
+      <c r="B114" t="s">
+        <v>1</v>
+      </c>
+      <c r="C114" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" t="s">
+        <v>226</v>
+      </c>
+      <c r="B115" t="s">
+        <v>1</v>
+      </c>
+      <c r="C115" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" t="s">
+        <v>228</v>
+      </c>
+      <c r="B116" t="s">
+        <v>1</v>
+      </c>
+      <c r="C116" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" t="s">
+        <v>230</v>
+      </c>
+      <c r="B117" t="s">
+        <v>1</v>
+      </c>
+      <c r="C117" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" t="s">
+        <v>232</v>
+      </c>
+      <c r="B118" t="s">
+        <v>1</v>
+      </c>
+      <c r="C118" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" t="s">
+        <v>234</v>
+      </c>
+      <c r="B119" t="s">
+        <v>1</v>
+      </c>
+      <c r="C119" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" t="s">
+        <v>236</v>
+      </c>
+      <c r="B120" t="s">
+        <v>1</v>
+      </c>
+      <c r="C120" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" t="s">
+        <v>238</v>
+      </c>
+      <c r="B121" t="s">
+        <v>1</v>
+      </c>
+      <c r="C121" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" t="s">
+        <v>240</v>
+      </c>
+      <c r="B122" t="s">
+        <v>1</v>
+      </c>
+      <c r="C122" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" t="s">
+        <v>242</v>
+      </c>
+      <c r="B123" t="s">
+        <v>1</v>
+      </c>
+      <c r="C123" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" t="s">
+        <v>244</v>
+      </c>
+      <c r="B124" t="s">
+        <v>1</v>
+      </c>
+      <c r="C124" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" t="s">
+        <v>246</v>
+      </c>
+      <c r="B125" t="s">
+        <v>1</v>
+      </c>
+      <c r="C125" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" t="s">
+        <v>248</v>
+      </c>
+      <c r="B126" t="s">
+        <v>1</v>
+      </c>
+      <c r="C126" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" t="s">
+        <v>250</v>
+      </c>
+      <c r="B127" t="s">
+        <v>1</v>
+      </c>
+      <c r="C127" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" t="s">
+        <v>252</v>
+      </c>
+      <c r="B128" t="s">
+        <v>1</v>
+      </c>
+      <c r="C128" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" t="s">
+        <v>254</v>
+      </c>
+      <c r="B129" t="s">
+        <v>1</v>
+      </c>
+      <c r="C129" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" t="s">
+        <v>256</v>
+      </c>
+      <c r="B130" t="s">
+        <v>1</v>
+      </c>
+      <c r="C130" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" t="s">
+        <v>258</v>
+      </c>
+      <c r="B131" t="s">
+        <v>1</v>
+      </c>
+      <c r="C131" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" t="s">
+        <v>260</v>
+      </c>
+      <c r="B132" t="s">
+        <v>1</v>
+      </c>
+      <c r="C132" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" t="s">
+        <v>262</v>
+      </c>
+      <c r="B133" t="s">
+        <v>1</v>
+      </c>
+      <c r="C133" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134" t="s">
+        <v>264</v>
+      </c>
+      <c r="B134" t="s">
+        <v>1</v>
+      </c>
+      <c r="C134" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135" t="s">
+        <v>266</v>
+      </c>
+      <c r="B135" t="s">
+        <v>1</v>
+      </c>
+      <c r="C135" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" t="s">
+        <v>268</v>
+      </c>
+      <c r="B136" t="s">
+        <v>1</v>
+      </c>
+      <c r="C136" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137" t="s">
+        <v>270</v>
+      </c>
+      <c r="B137" t="s">
+        <v>1</v>
+      </c>
+      <c r="C137" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138" t="s">
+        <v>272</v>
+      </c>
+      <c r="B138" t="s">
+        <v>1</v>
+      </c>
+      <c r="C138" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139" t="s">
+        <v>274</v>
+      </c>
+      <c r="B139" t="s">
+        <v>1</v>
+      </c>
+      <c r="C139" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140" t="s">
+        <v>276</v>
+      </c>
+      <c r="B140" t="s">
+        <v>1</v>
+      </c>
+      <c r="C140" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141" t="s">
+        <v>278</v>
+      </c>
+      <c r="B141" t="s">
+        <v>1</v>
+      </c>
+      <c r="C141" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142" t="s">
+        <v>280</v>
+      </c>
+      <c r="B142" t="s">
+        <v>1</v>
+      </c>
+      <c r="C142" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143" t="s">
+        <v>282</v>
+      </c>
+      <c r="B143" t="s">
+        <v>1</v>
+      </c>
+      <c r="C143" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144" t="s">
+        <v>284</v>
+      </c>
+      <c r="B144" t="s">
+        <v>1</v>
+      </c>
+      <c r="C144" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" t="s">
+        <v>286</v>
+      </c>
+      <c r="B145" t="s">
+        <v>1</v>
+      </c>
+      <c r="C145" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146" t="s">
+        <v>147</v>
+      </c>
+      <c r="B146" t="s">
+        <v>1</v>
+      </c>
+      <c r="C146" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147" t="s">
+        <v>288</v>
+      </c>
+      <c r="B147" t="s">
+        <v>1</v>
+      </c>
+      <c r="C147" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148" t="s">
+        <v>290</v>
+      </c>
+      <c r="B148" t="s">
+        <v>1</v>
+      </c>
+      <c r="C148" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149" t="s">
+        <v>292</v>
+      </c>
+      <c r="B149" t="s">
+        <v>1</v>
+      </c>
+      <c r="C149" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150" t="s">
+        <v>294</v>
+      </c>
+      <c r="B150" t="s">
+        <v>1</v>
+      </c>
+      <c r="C150" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151" t="s">
+        <v>296</v>
+      </c>
+      <c r="B151" t="s">
+        <v>1</v>
+      </c>
+      <c r="C151" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152" t="s">
+        <v>298</v>
+      </c>
+      <c r="B152" t="s">
+        <v>1</v>
+      </c>
+      <c r="C152" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153" t="s">
+        <v>300</v>
+      </c>
+      <c r="B153" t="s">
+        <v>1</v>
+      </c>
+      <c r="C153" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154" t="s">
+        <v>302</v>
+      </c>
+      <c r="B154" t="s">
+        <v>1</v>
+      </c>
+      <c r="C154" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155" t="s">
+        <v>304</v>
+      </c>
+      <c r="B155" t="s">
+        <v>1</v>
+      </c>
+      <c r="C155" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156" t="s">
+        <v>306</v>
+      </c>
+      <c r="B156" t="s">
+        <v>1</v>
+      </c>
+      <c r="C156" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157" t="s">
+        <v>308</v>
+      </c>
+      <c r="B157" t="s">
+        <v>1</v>
+      </c>
+      <c r="C157" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158" t="s">
+        <v>310</v>
+      </c>
+      <c r="B158" t="s">
+        <v>1</v>
+      </c>
+      <c r="C158" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159" t="s">
+        <v>312</v>
+      </c>
+      <c r="B159" t="s">
+        <v>1</v>
+      </c>
+      <c r="C159" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160" t="s">
+        <v>313</v>
+      </c>
+      <c r="B160" t="s">
+        <v>1</v>
+      </c>
+      <c r="C160" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161" t="s">
+        <v>315</v>
+      </c>
+      <c r="B161" t="s">
+        <v>1</v>
+      </c>
+      <c r="C161" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162" t="s">
+        <v>317</v>
+      </c>
+      <c r="B162" t="s">
+        <v>1</v>
+      </c>
+      <c r="C162" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163" t="s">
+        <v>319</v>
+      </c>
+      <c r="B163" t="s">
+        <v>1</v>
+      </c>
+      <c r="C163" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164" t="s">
+        <v>321</v>
+      </c>
+      <c r="B164" t="s">
+        <v>1</v>
+      </c>
+      <c r="C164" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165" t="s">
+        <v>323</v>
+      </c>
+      <c r="B165" t="s">
+        <v>1</v>
+      </c>
+      <c r="C165" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166" t="s">
+        <v>325</v>
+      </c>
+      <c r="B166" t="s">
+        <v>1</v>
+      </c>
+      <c r="C166" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
+      <c r="A167" t="s">
+        <v>327</v>
+      </c>
+      <c r="B167" t="s">
+        <v>1</v>
+      </c>
+      <c r="C167" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
+      <c r="A168" t="s">
+        <v>329</v>
+      </c>
+      <c r="B168" t="s">
+        <v>1</v>
+      </c>
+      <c r="C168" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
+      <c r="A169" t="s">
+        <v>331</v>
+      </c>
+      <c r="B169" t="s">
+        <v>1</v>
+      </c>
+      <c r="C169" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
+      <c r="A170" t="s">
+        <v>333</v>
+      </c>
+      <c r="B170" t="s">
+        <v>1</v>
+      </c>
+      <c r="C170" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
+      <c r="A171" t="s">
+        <v>335</v>
+      </c>
+      <c r="B171" t="s">
+        <v>1</v>
+      </c>
+      <c r="C171" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
+      <c r="A172" t="s">
+        <v>337</v>
+      </c>
+      <c r="B172" t="s">
+        <v>1</v>
+      </c>
+      <c r="C172" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3">
+      <c r="A173" t="s">
+        <v>338</v>
+      </c>
+      <c r="B173" t="s">
+        <v>1</v>
+      </c>
+      <c r="C173" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
+      <c r="A174" t="s">
+        <v>340</v>
+      </c>
+      <c r="B174" t="s">
+        <v>1</v>
+      </c>
+      <c r="C174" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3">
+      <c r="A175" t="s">
+        <v>342</v>
+      </c>
+      <c r="B175" t="s">
+        <v>1</v>
+      </c>
+      <c r="C175" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
+      <c r="A176" t="s">
+        <v>344</v>
+      </c>
+      <c r="B176" t="s">
+        <v>1</v>
+      </c>
+      <c r="C176" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3">
+      <c r="A177" t="s">
+        <v>346</v>
+      </c>
+      <c r="B177" t="s">
+        <v>1</v>
+      </c>
+      <c r="C177" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3">
+      <c r="A178" t="s">
+        <v>348</v>
+      </c>
+      <c r="B178" t="s">
+        <v>1</v>
+      </c>
+      <c r="C178" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3">
+      <c r="A179" t="s">
+        <v>133</v>
+      </c>
+      <c r="B179" t="s">
+        <v>1</v>
+      </c>
+      <c r="C179" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
+      <c r="A180" t="s">
+        <v>351</v>
+      </c>
+      <c r="B180" t="s">
+        <v>1</v>
+      </c>
+      <c r="C180" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3">
+      <c r="A181" t="s">
+        <v>353</v>
+      </c>
+      <c r="B181" t="s">
+        <v>1</v>
+      </c>
+      <c r="C181" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3">
+      <c r="A182" t="s">
+        <v>355</v>
+      </c>
+      <c r="B182" t="s">
+        <v>1</v>
+      </c>
+      <c r="C182" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3">
+      <c r="A183" t="s">
+        <v>357</v>
+      </c>
+      <c r="B183" t="s">
+        <v>1</v>
+      </c>
+      <c r="C183" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3">
+      <c r="A184" t="s">
+        <v>264</v>
+      </c>
+      <c r="B184" t="s">
+        <v>1</v>
+      </c>
+      <c r="C184" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3">
+      <c r="A185" t="s">
+        <v>359</v>
+      </c>
+      <c r="B185" t="s">
+        <v>1</v>
+      </c>
+      <c r="C185" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3">
+      <c r="A186" t="s">
+        <v>360</v>
+      </c>
+      <c r="B186" t="s">
+        <v>1</v>
+      </c>
+      <c r="C186" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3">
+      <c r="A187" t="s">
+        <v>362</v>
+      </c>
+      <c r="B187" t="s">
+        <v>1</v>
+      </c>
+      <c r="C187" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3">
+      <c r="A188" t="s">
+        <v>364</v>
+      </c>
+      <c r="B188" t="s">
+        <v>1</v>
+      </c>
+      <c r="C188" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3">
+      <c r="A189" t="s">
+        <v>366</v>
+      </c>
+      <c r="B189" t="s">
+        <v>1</v>
+      </c>
+      <c r="C189" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3">
+      <c r="A190" t="s">
+        <v>368</v>
+      </c>
+      <c r="B190" t="s">
+        <v>1</v>
+      </c>
+      <c r="C190" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3">
+      <c r="A191" t="s">
+        <v>370</v>
+      </c>
+      <c r="B191" t="s">
+        <v>1</v>
+      </c>
+      <c r="C191" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3">
+      <c r="A192" t="s">
+        <v>371</v>
+      </c>
+      <c r="B192" t="s">
+        <v>1</v>
+      </c>
+      <c r="C192" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3">
+      <c r="A193" t="s">
+        <v>373</v>
+      </c>
+      <c r="B193" t="s">
+        <v>1</v>
+      </c>
+      <c r="C193" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3">
+      <c r="A194" t="s">
+        <v>375</v>
+      </c>
+      <c r="B194" t="s">
+        <v>1</v>
+      </c>
+      <c r="C194" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3">
+      <c r="A195" t="s">
+        <v>377</v>
+      </c>
+      <c r="B195" t="s">
+        <v>1</v>
+      </c>
+      <c r="C195" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3">
+      <c r="A196" t="s">
+        <v>379</v>
+      </c>
+      <c r="B196" t="s">
+        <v>1</v>
+      </c>
+      <c r="C196" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3">
+      <c r="A197" t="s">
+        <v>381</v>
+      </c>
+      <c r="B197" t="s">
+        <v>1</v>
+      </c>
+      <c r="C197" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3">
+      <c r="A198" t="s">
+        <v>383</v>
+      </c>
+      <c r="B198" t="s">
+        <v>1</v>
+      </c>
+      <c r="C198" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3">
+      <c r="A199" t="s">
+        <v>385</v>
+      </c>
+      <c r="B199" t="s">
+        <v>1</v>
+      </c>
+      <c r="C199" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3">
+      <c r="A200" t="s">
+        <v>387</v>
+      </c>
+      <c r="B200" t="s">
+        <v>1</v>
+      </c>
+      <c r="C200" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3">
+      <c r="A201" t="s">
+        <v>389</v>
+      </c>
+      <c r="B201" t="s">
+        <v>1</v>
+      </c>
+      <c r="C201" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3">
+      <c r="A202" t="s">
+        <v>391</v>
+      </c>
+      <c r="B202" t="s">
+        <v>1</v>
+      </c>
+      <c r="C202" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3">
+      <c r="A203" t="s">
+        <v>393</v>
+      </c>
+      <c r="B203" t="s">
+        <v>1</v>
+      </c>
+      <c r="C203" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3">
+      <c r="A204" t="s">
+        <v>395</v>
+      </c>
+      <c r="B204" t="s">
+        <v>1</v>
+      </c>
+      <c r="C204" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3">
+      <c r="A205" t="s">
+        <v>397</v>
+      </c>
+      <c r="B205" t="s">
+        <v>1</v>
+      </c>
+      <c r="C205" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3">
+      <c r="A206" t="s">
+        <v>399</v>
+      </c>
+      <c r="B206" t="s">
+        <v>1</v>
+      </c>
+      <c r="C206" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3">
+      <c r="A207" t="s">
+        <v>401</v>
+      </c>
+      <c r="B207" t="s">
+        <v>1</v>
+      </c>
+      <c r="C207" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3">
+      <c r="A208" t="s">
+        <v>403</v>
+      </c>
+      <c r="B208" t="s">
+        <v>1</v>
+      </c>
+      <c r="C208" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3">
+      <c r="A209" t="s">
+        <v>405</v>
+      </c>
+      <c r="B209" t="s">
+        <v>1</v>
+      </c>
+      <c r="C209" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3">
+      <c r="A210" t="s">
+        <v>407</v>
+      </c>
+      <c r="B210" t="s">
+        <v>1</v>
+      </c>
+      <c r="C210" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3">
+      <c r="A211" t="s">
+        <v>409</v>
+      </c>
+      <c r="B211" t="s">
+        <v>1</v>
+      </c>
+      <c r="C211" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3">
+      <c r="A212" t="s">
+        <v>411</v>
+      </c>
+      <c r="B212" t="s">
+        <v>1</v>
+      </c>
+      <c r="C212" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3">
+      <c r="A213" t="s">
+        <v>413</v>
+      </c>
+      <c r="B213" t="s">
+        <v>1</v>
+      </c>
+      <c r="C213" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3">
+      <c r="A214" t="s">
+        <v>415</v>
+      </c>
+      <c r="B214" t="s">
+        <v>1</v>
+      </c>
+      <c r="C214" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3">
+      <c r="A215" t="s">
+        <v>417</v>
+      </c>
+      <c r="B215" t="s">
+        <v>1</v>
+      </c>
+      <c r="C215" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3">
+      <c r="A216" t="s">
+        <v>419</v>
+      </c>
+      <c r="B216" t="s">
+        <v>1</v>
+      </c>
+      <c r="C216" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3">
+      <c r="A217" t="s">
+        <v>421</v>
+      </c>
+      <c r="B217" t="s">
+        <v>1</v>
+      </c>
+      <c r="C217" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3">
+      <c r="A218" t="s">
+        <v>423</v>
+      </c>
+      <c r="B218" t="s">
+        <v>1</v>
+      </c>
+      <c r="C218" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3">
+      <c r="A219" t="s">
+        <v>425</v>
+      </c>
+      <c r="B219" t="s">
+        <v>1</v>
+      </c>
+      <c r="C219" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3">
+      <c r="A220" t="s">
+        <v>427</v>
+      </c>
+      <c r="B220" t="s">
+        <v>1</v>
+      </c>
+      <c r="C220" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3">
+      <c r="A221" t="s">
+        <v>429</v>
+      </c>
+      <c r="B221" t="s">
+        <v>1</v>
+      </c>
+      <c r="C221" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3">
+      <c r="A222" t="s">
+        <v>431</v>
+      </c>
+      <c r="B222" t="s">
+        <v>1</v>
+      </c>
+      <c r="C222" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3">
+      <c r="A223" t="s">
+        <v>433</v>
+      </c>
+      <c r="B223" t="s">
+        <v>1</v>
+      </c>
+      <c r="C223" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3">
+      <c r="A224" t="s">
+        <v>435</v>
+      </c>
+      <c r="B224" t="s">
+        <v>1</v>
+      </c>
+      <c r="C224" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3">
+      <c r="A225" t="s">
+        <v>437</v>
+      </c>
+      <c r="B225" t="s">
+        <v>1</v>
+      </c>
+      <c r="C225" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3">
+      <c r="A226" t="s">
+        <v>439</v>
+      </c>
+      <c r="B226" t="s">
+        <v>1</v>
+      </c>
+      <c r="C226" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3">
+      <c r="A227" t="s">
+        <v>441</v>
+      </c>
+      <c r="B227" t="s">
+        <v>1</v>
+      </c>
+      <c r="C227" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3">
+      <c r="A228" t="s">
+        <v>443</v>
+      </c>
+      <c r="B228" t="s">
+        <v>1</v>
+      </c>
+      <c r="C228" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3">
+      <c r="A229" t="s">
+        <v>445</v>
+      </c>
+      <c r="B229" t="s">
+        <v>1</v>
+      </c>
+      <c r="C229" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3">
+      <c r="A230" t="s">
+        <v>447</v>
+      </c>
+      <c r="B230" t="s">
+        <v>1</v>
+      </c>
+      <c r="C230" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3">
+      <c r="A231" t="s">
+        <v>449</v>
+      </c>
+      <c r="B231" t="s">
+        <v>1</v>
+      </c>
+      <c r="C231" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3">
+      <c r="A232" t="s">
+        <v>451</v>
+      </c>
+      <c r="B232" t="s">
+        <v>1</v>
+      </c>
+      <c r="C232" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3">
+      <c r="A233" t="s">
+        <v>453</v>
+      </c>
+      <c r="B233" t="s">
+        <v>1</v>
+      </c>
+      <c r="C233" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3">
+      <c r="A234" t="s">
+        <v>455</v>
+      </c>
+      <c r="B234" t="s">
+        <v>1</v>
+      </c>
+      <c r="C234" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3">
+      <c r="A235" t="s">
+        <v>456</v>
+      </c>
+      <c r="B235" t="s">
+        <v>1</v>
+      </c>
+      <c r="C235" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3">
+      <c r="A236" t="s">
+        <v>458</v>
+      </c>
+      <c r="B236" t="s">
+        <v>1</v>
+      </c>
+      <c r="C236" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3">
+      <c r="A237" t="s">
+        <v>460</v>
+      </c>
+      <c r="B237" t="s">
+        <v>1</v>
+      </c>
+      <c r="C237" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3">
+      <c r="A238" t="s">
+        <v>462</v>
+      </c>
+      <c r="B238" t="s">
+        <v>1</v>
+      </c>
+      <c r="C238" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3">
+      <c r="A239" t="s">
+        <v>464</v>
+      </c>
+      <c r="B239" t="s">
+        <v>1</v>
+      </c>
+      <c r="C239" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3">
+      <c r="A240" t="s">
+        <v>466</v>
+      </c>
+      <c r="B240" t="s">
+        <v>1</v>
+      </c>
+      <c r="C240" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3">
+      <c r="A241" t="s">
+        <v>468</v>
+      </c>
+      <c r="B241" t="s">
+        <v>1</v>
+      </c>
+      <c r="C241" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3">
+      <c r="A242" t="s">
+        <v>470</v>
+      </c>
+      <c r="B242" t="s">
+        <v>1</v>
+      </c>
+      <c r="C242" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3">
+      <c r="A243" t="s">
+        <v>471</v>
+      </c>
+      <c r="B243" t="s">
+        <v>1</v>
+      </c>
+      <c r="C243" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3">
+      <c r="A244" t="s">
+        <v>473</v>
+      </c>
+      <c r="B244" t="s">
+        <v>1</v>
+      </c>
+      <c r="C244" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3">
+      <c r="A245" t="s">
+        <v>475</v>
+      </c>
+      <c r="B245" t="s">
+        <v>1</v>
+      </c>
+      <c r="C245" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3">
+      <c r="A246" t="s">
+        <v>477</v>
+      </c>
+      <c r="B246" t="s">
+        <v>1</v>
+      </c>
+      <c r="C246" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3">
+      <c r="A247" t="s">
+        <v>478</v>
+      </c>
+      <c r="B247" t="s">
+        <v>1</v>
+      </c>
+      <c r="C247" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3">
+      <c r="A248" t="s">
+        <v>480</v>
+      </c>
+      <c r="B248" t="s">
+        <v>1</v>
+      </c>
+      <c r="C248" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3">
+      <c r="A249" t="s">
+        <v>482</v>
+      </c>
+      <c r="B249" t="s">
+        <v>1</v>
+      </c>
+      <c r="C249" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3">
+      <c r="A250" t="s">
+        <v>484</v>
+      </c>
+      <c r="B250" t="s">
+        <v>1</v>
+      </c>
+      <c r="C250" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3">
+      <c r="A251" t="s">
+        <v>486</v>
+      </c>
+      <c r="B251" t="s">
+        <v>1</v>
+      </c>
+      <c r="C251" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3">
+      <c r="A252" t="s">
+        <v>488</v>
+      </c>
+      <c r="B252" t="s">
+        <v>1</v>
+      </c>
+      <c r="C252" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3">
+      <c r="A253" t="s">
+        <v>490</v>
+      </c>
+      <c r="B253" t="s">
+        <v>1</v>
+      </c>
+      <c r="C253" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3">
+      <c r="A254" t="s">
+        <v>492</v>
+      </c>
+      <c r="B254" t="s">
+        <v>1</v>
+      </c>
+      <c r="C254" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3">
+      <c r="A255" t="s">
+        <v>494</v>
+      </c>
+      <c r="B255" t="s">
+        <v>1</v>
+      </c>
+      <c r="C255" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3">
+      <c r="A256" t="s">
+        <v>495</v>
+      </c>
+      <c r="B256" t="s">
+        <v>1</v>
+      </c>
+      <c r="C256" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3">
+      <c r="A257" t="s">
+        <v>497</v>
+      </c>
+      <c r="B257" t="s">
+        <v>1</v>
+      </c>
+      <c r="C257" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3">
+      <c r="A258" t="s">
+        <v>499</v>
+      </c>
+      <c r="B258" t="s">
+        <v>1</v>
+      </c>
+      <c r="C258" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3">
+      <c r="A259" t="s">
+        <v>501</v>
+      </c>
+      <c r="B259" t="s">
+        <v>1</v>
+      </c>
+      <c r="C259" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3">
+      <c r="A260" t="s">
+        <v>503</v>
+      </c>
+      <c r="B260" t="s">
+        <v>1</v>
+      </c>
+      <c r="C260" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3">
+      <c r="A261" t="s">
+        <v>505</v>
+      </c>
+      <c r="B261" t="s">
+        <v>1</v>
+      </c>
+      <c r="C261" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3">
+      <c r="A262" t="s">
+        <v>507</v>
+      </c>
+      <c r="B262" t="s">
+        <v>1</v>
+      </c>
+      <c r="C262" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3">
+      <c r="A263" t="s">
+        <v>509</v>
+      </c>
+      <c r="B263" t="s">
+        <v>1</v>
+      </c>
+      <c r="C263" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3">
+      <c r="A264" t="s">
+        <v>511</v>
+      </c>
+      <c r="B264" t="s">
+        <v>1</v>
+      </c>
+      <c r="C264" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3">
+      <c r="A265" t="s">
+        <v>512</v>
+      </c>
+      <c r="B265" t="s">
+        <v>1</v>
+      </c>
+      <c r="C265" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3">
+      <c r="A266" t="s">
+        <v>514</v>
+      </c>
+      <c r="B266" t="s">
+        <v>1</v>
+      </c>
+      <c r="C266" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3">
+      <c r="A267" t="s">
+        <v>516</v>
+      </c>
+      <c r="B267" t="s">
+        <v>1</v>
+      </c>
+      <c r="C267" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3">
+      <c r="A268" t="s">
+        <v>518</v>
+      </c>
+      <c r="B268" t="s">
+        <v>1</v>
+      </c>
+      <c r="C268" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3">
+      <c r="A269" t="s">
+        <v>520</v>
+      </c>
+      <c r="B269" t="s">
+        <v>1</v>
+      </c>
+      <c r="C269" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3">
+      <c r="A270" t="s">
+        <v>522</v>
+      </c>
+      <c r="B270" t="s">
+        <v>1</v>
+      </c>
+      <c r="C270" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3">
+      <c r="A271" t="s">
+        <v>524</v>
+      </c>
+      <c r="B271" t="s">
+        <v>1</v>
+      </c>
+      <c r="C271" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3">
+      <c r="A272" t="s">
+        <v>526</v>
+      </c>
+      <c r="B272" t="s">
+        <v>1</v>
+      </c>
+      <c r="C272" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3">
+      <c r="A273" t="s">
+        <v>482</v>
+      </c>
+      <c r="B273" t="s">
+        <v>1</v>
+      </c>
+      <c r="C273" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3">
+      <c r="A274" t="s">
+        <v>529</v>
+      </c>
+      <c r="B274" t="s">
+        <v>1</v>
+      </c>
+      <c r="C274" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3">
+      <c r="A275" t="s">
+        <v>531</v>
+      </c>
+      <c r="B275" t="s">
+        <v>1</v>
+      </c>
+      <c r="C275" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3">
+      <c r="A276" t="s">
+        <v>533</v>
+      </c>
+      <c r="B276" t="s">
+        <v>1</v>
+      </c>
+      <c r="C276" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3">
+      <c r="A277" t="s">
+        <v>535</v>
+      </c>
+      <c r="B277" t="s">
+        <v>1</v>
+      </c>
+      <c r="C277" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3">
+      <c r="A278" t="s">
+        <v>537</v>
+      </c>
+      <c r="B278" t="s">
+        <v>1</v>
+      </c>
+      <c r="C278" t="s">
+        <v>538</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>